--- a/data/trans_orig/P24D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>122691</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>103663</v>
+        <v>104201</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>142117</v>
+        <v>141940</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3283816134109624</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.27745431207121</v>
+        <v>0.2788929649396549</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3803759649705284</v>
+        <v>0.3799010148248524</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -765,19 +765,19 @@
         <v>55537</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42955</v>
+        <v>42908</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68797</v>
+        <v>67294</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3145867127502547</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2433153338929165</v>
+        <v>0.2430511859539363</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.389691530407331</v>
+        <v>0.3811816961107732</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>176</v>
@@ -786,19 +786,19 @@
         <v>178229</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>157885</v>
+        <v>155974</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>203555</v>
+        <v>199453</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3239549989757851</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2869768557631471</v>
+        <v>0.2835034490883319</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3699883033981481</v>
+        <v>0.3625325855794577</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>250932</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>231506</v>
+        <v>231683</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>269960</v>
+        <v>269422</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6716183865890376</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6196240350294715</v>
+        <v>0.6200989851751475</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7225456879287898</v>
+        <v>0.721107035060345</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>119</v>
@@ -836,19 +836,19 @@
         <v>121004</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>107744</v>
+        <v>109247</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>133586</v>
+        <v>133633</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6854132872497453</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6103084695926692</v>
+        <v>0.6188183038892268</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7566846661070835</v>
+        <v>0.7569488140460636</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>361</v>
@@ -857,19 +857,19 @@
         <v>371936</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>346610</v>
+        <v>350712</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>392280</v>
+        <v>394191</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6760450010242148</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.630011696601852</v>
+        <v>0.6374674144205424</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7130231442368529</v>
+        <v>0.7164965509116683</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>232620</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>203829</v>
+        <v>206633</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>258548</v>
+        <v>259557</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2847813917422947</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2495342632501012</v>
+        <v>0.2529668510620983</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3165233767138911</v>
+        <v>0.3177591206614073</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>185</v>
@@ -982,19 +982,19 @@
         <v>189536</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>167650</v>
+        <v>167017</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>212027</v>
+        <v>211949</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.351512618157677</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3109241327761398</v>
+        <v>0.3097501894700513</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3932249773519503</v>
+        <v>0.3930802810828554</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>409</v>
@@ -1003,19 +1003,19 @@
         <v>422156</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>389566</v>
+        <v>390254</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>456293</v>
+        <v>459845</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3113156780185566</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2872829920052477</v>
+        <v>0.2877901238394097</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3364901829881844</v>
+        <v>0.3391095694311086</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>584217</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>558289</v>
+        <v>557280</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>613008</v>
+        <v>610204</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7152186082577053</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6834766232861089</v>
+        <v>0.6822408793385926</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7504657367498988</v>
+        <v>0.7470331489379017</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>347</v>
@@ -1053,19 +1053,19 @@
         <v>349664</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>327173</v>
+        <v>327251</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>371550</v>
+        <v>372183</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6484873818423229</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6067750226480496</v>
+        <v>0.6069197189171446</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6890758672238603</v>
+        <v>0.6902498105299487</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>920</v>
@@ -1074,19 +1074,19 @@
         <v>933881</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>899744</v>
+        <v>896192</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>966471</v>
+        <v>965783</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6886843219814435</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6635098170118157</v>
+        <v>0.6608904305688917</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7127170079947527</v>
+        <v>0.7122098761605904</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>65237</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51304</v>
+        <v>52523</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78771</v>
+        <v>80152</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3426918402403084</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.269502120685041</v>
+        <v>0.2759040222687063</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4137856832761551</v>
+        <v>0.4210392908229535</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -1199,19 +1199,19 @@
         <v>52937</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41963</v>
+        <v>42350</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65315</v>
+        <v>65460</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3815717459180595</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.302467570809953</v>
+        <v>0.3052618638169738</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.470794918699097</v>
+        <v>0.4718364083296216</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -1220,19 +1220,19 @@
         <v>118174</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>99885</v>
+        <v>101756</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>135138</v>
+        <v>136142</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3590817895230177</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3035080873071295</v>
+        <v>0.3091934991966888</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4106281500547693</v>
+        <v>0.4136771685235651</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>125130</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>111596</v>
+        <v>110215</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>139063</v>
+        <v>137844</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6573081597596916</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5862143167238453</v>
+        <v>0.5789607091770466</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7304978793149595</v>
+        <v>0.7240959777312939</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>82</v>
@@ -1270,19 +1270,19 @@
         <v>85797</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>73419</v>
+        <v>73274</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>96771</v>
+        <v>96384</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6184282540819406</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5292050813009029</v>
+        <v>0.5281635916703783</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.697532429190047</v>
+        <v>0.6947381361830263</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>205</v>
@@ -1291,19 +1291,19 @@
         <v>210927</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>193963</v>
+        <v>192959</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>229216</v>
+        <v>227345</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6409182104769824</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5893718499452307</v>
+        <v>0.5863228314764348</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6964919126928705</v>
+        <v>0.6908065008033113</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>420548</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>386621</v>
+        <v>388755</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>452178</v>
+        <v>457470</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3045625170079075</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2799921690126399</v>
+        <v>0.2815375829657055</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3274687868622447</v>
+        <v>0.3313015520276268</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>289</v>
@@ -1416,19 +1416,19 @@
         <v>298010</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>271555</v>
+        <v>268865</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>324672</v>
+        <v>327039</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.348763877845962</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3178042204807369</v>
+        <v>0.3146560323284813</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3799666579407184</v>
+        <v>0.3827367057278952</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>696</v>
@@ -1437,19 +1437,19 @@
         <v>718558</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>671490</v>
+        <v>675655</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>764122</v>
+        <v>762533</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3214590841093062</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3004022731049635</v>
+        <v>0.3022655502971323</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3418427170671687</v>
+        <v>0.3411321607454018</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>960280</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>928650</v>
+        <v>923358</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>994207</v>
+        <v>992073</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6954374829920925</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6725312131377552</v>
+        <v>0.668698447972373</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.72000783098736</v>
+        <v>0.7184624170342944</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>548</v>
@@ -1487,19 +1487,19 @@
         <v>556464</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>529802</v>
+        <v>527435</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>582919</v>
+        <v>585609</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.651236122154038</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6200333420592816</v>
+        <v>0.6172632942721048</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6821957795192631</v>
+        <v>0.6853439676715187</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1486</v>
@@ -1508,19 +1508,19 @@
         <v>1516744</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1471180</v>
+        <v>1472769</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1563812</v>
+        <v>1559647</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6785409158906938</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6581572829328312</v>
+        <v>0.6588678392545981</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6995977268950364</v>
+        <v>0.6977344497028676</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>151543</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>132972</v>
+        <v>132410</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>167933</v>
+        <v>170278</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4523595918736811</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3969241457383986</v>
+        <v>0.3952463919113951</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5012859177117798</v>
+        <v>0.5082858766669872</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>92</v>
@@ -1872,19 +1872,19 @@
         <v>100764</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>85365</v>
+        <v>86455</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116290</v>
+        <v>115323</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5037251802908629</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4267479566935544</v>
+        <v>0.4321963126969101</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5813426874917338</v>
+        <v>0.5765086483889234</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>234</v>
@@ -1893,19 +1893,19 @@
         <v>252306</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>229428</v>
+        <v>229791</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>276653</v>
+        <v>276807</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4715637094834751</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4288029585061049</v>
+        <v>0.4294824119451338</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5170686045766312</v>
+        <v>0.5173561313185744</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>183462</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>167072</v>
+        <v>164727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>202033</v>
+        <v>202595</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.547640408126319</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4987140822882202</v>
+        <v>0.4917141233330127</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6030758542616014</v>
+        <v>0.6047536080886049</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -1943,19 +1943,19 @@
         <v>99273</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>83747</v>
+        <v>84714</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>114672</v>
+        <v>113582</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4962748197091371</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4186573125082663</v>
+        <v>0.4234913516110765</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5732520433064457</v>
+        <v>0.5678036873030899</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>270</v>
@@ -1964,19 +1964,19 @@
         <v>282736</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>258389</v>
+        <v>258235</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>305614</v>
+        <v>305251</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.528436290516525</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4829313954233688</v>
+        <v>0.4826438686814256</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5711970414938949</v>
+        <v>0.5705175880548662</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>395010</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>363256</v>
+        <v>365043</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>422783</v>
+        <v>426686</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4637137930365911</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4264358060484653</v>
+        <v>0.4285347286481212</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4963170468473547</v>
+        <v>0.5008987628510838</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>295</v>
@@ -2089,19 +2089,19 @@
         <v>319863</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>293883</v>
+        <v>292493</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>345151</v>
+        <v>347145</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5064884561421891</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4653499783209377</v>
+        <v>0.4631490938562539</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5465298003675488</v>
+        <v>0.5496871902029205</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>657</v>
@@ -2110,19 +2110,19 @@
         <v>714874</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>674116</v>
+        <v>675211</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>750604</v>
+        <v>753104</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4819246793283982</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4544480699348686</v>
+        <v>0.4551862475810983</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5060118648152125</v>
+        <v>0.5076976104800479</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>456831</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>429058</v>
+        <v>425155</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>488585</v>
+        <v>486798</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5362862069634089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5036829531526453</v>
+        <v>0.4991012371489162</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5735641939515348</v>
+        <v>0.5714652713518787</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>286</v>
@@ -2160,19 +2160,19 @@
         <v>311668</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>286380</v>
+        <v>284386</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>337648</v>
+        <v>339038</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4935115438578109</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4534701996324512</v>
+        <v>0.4503128097970796</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5346500216790623</v>
+        <v>0.5368509061437461</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>723</v>
@@ -2181,19 +2181,19 @@
         <v>768498</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>732768</v>
+        <v>730268</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>809256</v>
+        <v>808161</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5180753206716018</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4939881351847875</v>
+        <v>0.4923023895199521</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5455519300651314</v>
+        <v>0.5448137524189017</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>77390</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63179</v>
+        <v>63333</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90880</v>
+        <v>90421</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4793874255594815</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.39135508269622</v>
+        <v>0.3923101561130587</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5629503394048029</v>
+        <v>0.5601041176742728</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -2306,19 +2306,19 @@
         <v>75531</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62997</v>
+        <v>62569</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88421</v>
+        <v>87597</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5488118153922085</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4577360742900228</v>
+        <v>0.4546295898189432</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6424712179999889</v>
+        <v>0.6364811956021055</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>136</v>
@@ -2327,19 +2327,19 @@
         <v>152922</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134347</v>
+        <v>134101</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>172113</v>
+        <v>171097</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5113360990919991</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4492266458335077</v>
+        <v>0.4484037458110852</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5755090931702316</v>
+        <v>0.5721107692371828</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>84046</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>70556</v>
+        <v>71015</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>98257</v>
+        <v>98103</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5206125744405186</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4370496605951971</v>
+        <v>0.4398958823257272</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.60864491730378</v>
+        <v>0.6076898438869421</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>58</v>
@@ -2377,19 +2377,19 @@
         <v>62096</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>49206</v>
+        <v>50030</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>74630</v>
+        <v>75058</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4511881846077915</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.357528782000011</v>
+        <v>0.3635188043978949</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5422639257099768</v>
+        <v>0.5453704101810567</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>136</v>
@@ -2398,19 +2398,19 @@
         <v>146141</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>126950</v>
+        <v>127966</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>164716</v>
+        <v>164962</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.488663900908001</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4244909068297685</v>
+        <v>0.4278892307628172</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5507733541664924</v>
+        <v>0.5515962541889149</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>623944</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>585367</v>
+        <v>588835</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>666936</v>
+        <v>665326</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4627693098841573</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4341574324831877</v>
+        <v>0.4367295178380369</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4946564964389009</v>
+        <v>0.4934621880821137</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>455</v>
@@ -2523,19 +2523,19 @@
         <v>496158</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>464266</v>
+        <v>465947</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>529072</v>
+        <v>531977</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5119281014416561</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.479022985276682</v>
+        <v>0.480757613417101</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.545888377354917</v>
+        <v>0.5488859933719186</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1027</v>
@@ -2544,19 +2544,19 @@
         <v>1120102</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1066137</v>
+        <v>1068560</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1167526</v>
+        <v>1165299</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4833280617059141</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4600422358756732</v>
+        <v>0.461087635932615</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5037919366683772</v>
+        <v>0.5028310586864186</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>724338</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>681346</v>
+        <v>682956</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>762915</v>
+        <v>759447</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5372306901158427</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5053435035610991</v>
+        <v>0.5065378119178865</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5658425675168122</v>
+        <v>0.5632704821619632</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>438</v>
@@ -2594,19 +2594,19 @@
         <v>473036</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>440122</v>
+        <v>437217</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>504928</v>
+        <v>503247</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4880718985583439</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4541116226450831</v>
+        <v>0.4511140066280815</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5209770147233181</v>
+        <v>0.5192423865828995</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1129</v>
@@ -2615,19 +2615,19 @@
         <v>1197375</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1149951</v>
+        <v>1152178</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1251340</v>
+        <v>1248917</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.516671938294086</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.496208063331623</v>
+        <v>0.4971689413135814</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5399577641243269</v>
+        <v>0.5389123640673851</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>93721</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79801</v>
+        <v>78499</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>108964</v>
+        <v>109480</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4176307380222006</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.355602761666631</v>
+        <v>0.3498019489863782</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4855555655772584</v>
+        <v>0.487855483914386</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -2979,19 +2979,19 @@
         <v>60762</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>48809</v>
+        <v>50313</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72000</v>
+        <v>73501</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4460714242268276</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3583227868954824</v>
+        <v>0.3693623865104857</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5285774960759513</v>
+        <v>0.5395974248065082</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>148</v>
@@ -3000,19 +3000,19 @@
         <v>154482</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>136065</v>
+        <v>134392</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>174374</v>
+        <v>172871</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4283733529930403</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3773034619071394</v>
+        <v>0.3726641893517026</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4835320959194094</v>
+        <v>0.4793655081041436</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>130689</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>115446</v>
+        <v>114930</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144609</v>
+        <v>145911</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5823692619777994</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5144444344227419</v>
+        <v>0.512144516085614</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.644397238333369</v>
+        <v>0.6501980510136218</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>74</v>
@@ -3050,19 +3050,19 @@
         <v>75453</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>64215</v>
+        <v>62714</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87406</v>
+        <v>85902</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5539285757731723</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4714225039240489</v>
+        <v>0.4604025751934919</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.641677213104518</v>
+        <v>0.6306376134895143</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>200</v>
@@ -3071,19 +3071,19 @@
         <v>206143</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>186251</v>
+        <v>187754</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>224560</v>
+        <v>226233</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5716266470069596</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5164679040805906</v>
+        <v>0.5206344918958563</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6226965380928607</v>
+        <v>0.627335810648297</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>342997</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>313625</v>
+        <v>312663</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>371168</v>
+        <v>371726</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4261281137263753</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3896375119796307</v>
+        <v>0.3884428540195767</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4611271682879658</v>
+        <v>0.4618204815790395</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>287</v>
@@ -3196,19 +3196,19 @@
         <v>296171</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>269505</v>
+        <v>269123</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>321987</v>
+        <v>320595</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4480941581127734</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4077494709579463</v>
+        <v>0.4071708630860089</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4871523392358415</v>
+        <v>0.485045718496771</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>606</v>
@@ -3217,19 +3217,19 @@
         <v>639168</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>601472</v>
+        <v>598129</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>676886</v>
+        <v>676931</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4360325479663363</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4103164687107606</v>
+        <v>0.4080358100664928</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.461762747481776</v>
+        <v>0.4617938297887201</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>461918</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>433747</v>
+        <v>433189</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>491290</v>
+        <v>492252</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5738718862736247</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5388728317120343</v>
+        <v>0.5381795184209601</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6103624880203693</v>
+        <v>0.6115571459804232</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>353</v>
@@ -3267,19 +3267,19 @@
         <v>364787</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>338971</v>
+        <v>340363</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>391453</v>
+        <v>391835</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5519058418872266</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5128476607641588</v>
+        <v>0.514954281503229</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.592250529042054</v>
+        <v>0.5928291369139912</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>781</v>
@@ -3288,19 +3288,19 @@
         <v>826705</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>788987</v>
+        <v>788942</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>864401</v>
+        <v>867744</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5639674520336636</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.538237252518224</v>
+        <v>0.5382061702112801</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5896835312892392</v>
+        <v>0.5919641899335073</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>63463</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50191</v>
+        <v>51581</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75356</v>
+        <v>75746</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4661136780955441</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3686330845830315</v>
+        <v>0.3788431383283373</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5534622062722163</v>
+        <v>0.5563289125929721</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -3413,19 +3413,19 @@
         <v>51049</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40554</v>
+        <v>40771</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61904</v>
+        <v>62558</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4238130913600123</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3366855164847699</v>
+        <v>0.3384846610039477</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5139275679736836</v>
+        <v>0.5193629800698312</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>105</v>
@@ -3434,19 +3434,19 @@
         <v>114512</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>97800</v>
+        <v>98493</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>131710</v>
+        <v>129968</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4462576207370651</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3811309372381912</v>
+        <v>0.3838282507311262</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5132784764041952</v>
+        <v>0.5064870583095882</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>72691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60798</v>
+        <v>60408</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>85963</v>
+        <v>84573</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.533886321904456</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4465377937277837</v>
+        <v>0.4436710874070279</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6313669154169685</v>
+        <v>0.6211568616716626</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>68</v>
@@ -3484,19 +3484,19 @@
         <v>69403</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58548</v>
+        <v>57894</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>79898</v>
+        <v>79681</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5761869086399878</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4860724320263165</v>
+        <v>0.4806370199301687</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6633144835152301</v>
+        <v>0.6615153389960522</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>133</v>
@@ -3505,19 +3505,19 @@
         <v>142094</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>124896</v>
+        <v>126638</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>158806</v>
+        <v>158113</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5537423792629349</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4867215235958044</v>
+        <v>0.4935129416904118</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6188690627618085</v>
+        <v>0.6161717492688739</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>500180</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>465747</v>
+        <v>468087</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>535913</v>
+        <v>539363</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4291631754682457</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3996188121095465</v>
+        <v>0.4016267298326238</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4598223309293657</v>
+        <v>0.4627828782683642</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>394</v>
@@ -3630,19 +3630,19 @@
         <v>407982</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>375216</v>
+        <v>377090</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>434848</v>
+        <v>438096</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4446066540831166</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4088992192523787</v>
+        <v>0.4109407758215822</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.47388393826571</v>
+        <v>0.4774243231676344</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>859</v>
@@ -3651,19 +3651,19 @@
         <v>908163</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>860122</v>
+        <v>866536</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>956540</v>
+        <v>954741</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4359661628933405</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4129037966758503</v>
+        <v>0.415983215994822</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4591899199091368</v>
+        <v>0.4583262461744216</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>665298</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>629565</v>
+        <v>626115</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>699731</v>
+        <v>697391</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5708368245317542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5401776690706341</v>
+        <v>0.5372171217316356</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6003811878904534</v>
+        <v>0.5983732701673763</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>495</v>
@@ -3701,19 +3701,19 @@
         <v>509643</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>482777</v>
+        <v>479529</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>542409</v>
+        <v>540535</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5553933459168834</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5261160617342899</v>
+        <v>0.5225756768323655</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5911007807476213</v>
+        <v>0.5890592241784178</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1114</v>
@@ -3722,19 +3722,19 @@
         <v>1174941</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1126564</v>
+        <v>1128363</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1222982</v>
+        <v>1216568</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5640338371066594</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5408100800908632</v>
+        <v>0.5416737538255784</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5870962033241498</v>
+        <v>0.5840167840051781</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>51433</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41231</v>
+        <v>40516</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64279</v>
+        <v>63999</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3373095231812342</v>
+        <v>0.3373095231812341</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2704015072267919</v>
+        <v>0.2657143388643631</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4215566478813769</v>
+        <v>0.419715850749237</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -4086,19 +4086,19 @@
         <v>45206</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37816</v>
+        <v>37505</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53262</v>
+        <v>52447</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5289508145990516</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4424775734599585</v>
+        <v>0.4388360585053919</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6232069524787093</v>
+        <v>0.6136779997294379</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>125</v>
@@ -4107,19 +4107,19 @@
         <v>96639</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82842</v>
+        <v>83777</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111865</v>
+        <v>111744</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4061422859499634</v>
+        <v>0.4061422859499635</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3481575092395965</v>
+        <v>0.352088958556641</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4701307238006978</v>
+        <v>0.4696237482520366</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>101048</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88202</v>
+        <v>88482</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111250</v>
+        <v>111965</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6626904768187658</v>
+        <v>0.6626904768187656</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5784433521186231</v>
+        <v>0.5802841492507631</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7295984927732079</v>
+        <v>0.7342856611356368</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>64</v>
@@ -4157,19 +4157,19 @@
         <v>40258</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32202</v>
+        <v>33017</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47648</v>
+        <v>47959</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4710491854009483</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3767930475212909</v>
+        <v>0.386322000270562</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5575224265400416</v>
+        <v>0.5611639414946078</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>171</v>
@@ -4178,19 +4178,19 @@
         <v>141305</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126079</v>
+        <v>126200</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>155102</v>
+        <v>154167</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5938577140500366</v>
+        <v>0.5938577140500365</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5298692761993022</v>
+        <v>0.5303762517479634</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6518424907604036</v>
+        <v>0.647911041443359</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>218566</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>192509</v>
+        <v>191648</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>247288</v>
+        <v>246350</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3464185648576669</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3051184909377419</v>
+        <v>0.30375503094158</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3919416552411182</v>
+        <v>0.3904551647723728</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>283</v>
@@ -4303,19 +4303,19 @@
         <v>215078</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>194889</v>
+        <v>193809</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>235863</v>
+        <v>235372</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4323944574142194</v>
+        <v>0.4323944574142193</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3918062979841874</v>
+        <v>0.3896362033501614</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4741810870558151</v>
+        <v>0.4731934794395557</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>478</v>
@@ -4324,19 +4324,19 @@
         <v>433644</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>397713</v>
+        <v>398192</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>470601</v>
+        <v>466581</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3843196409802868</v>
+        <v>0.3843196409802867</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3524751731898023</v>
+        <v>0.3529004745604603</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4170732870392724</v>
+        <v>0.4135099629795335</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>412365</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>383643</v>
+        <v>384581</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>438422</v>
+        <v>439283</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6535814351423331</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6080583447588825</v>
+        <v>0.6095448352276274</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6948815090622583</v>
+        <v>0.6962449690584199</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>369</v>
@@ -4374,19 +4374,19 @@
         <v>282333</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>261548</v>
+        <v>262039</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>302522</v>
+        <v>303602</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5676055425857807</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5258189129441848</v>
+        <v>0.5268065205604443</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6081937020158125</v>
+        <v>0.6103637966498386</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>714</v>
@@ -4395,19 +4395,19 @@
         <v>694698</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>657741</v>
+        <v>661761</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>730629</v>
+        <v>730150</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6156803590197132</v>
+        <v>0.6156803590197131</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5829267129607275</v>
+        <v>0.5864900370204664</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6475248268101975</v>
+        <v>0.6470995254395395</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>49165</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37641</v>
+        <v>38065</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60837</v>
+        <v>60730</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4458116640136111</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3413138208092337</v>
+        <v>0.3451587612925919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5516484566270002</v>
+        <v>0.5506764151394757</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -4520,19 +4520,19 @@
         <v>46024</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37578</v>
+        <v>36413</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55710</v>
+        <v>55723</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3944439200940487</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3220561134280955</v>
+        <v>0.3120728915188682</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4774617946426517</v>
+        <v>0.4775698828822728</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -4541,19 +4541,19 @@
         <v>95189</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>80760</v>
+        <v>81083</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110893</v>
+        <v>110703</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4194037177867574</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3558294388266983</v>
+        <v>0.3572536665696085</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4885959839638237</v>
+        <v>0.4877593064502331</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>61117</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>49445</v>
+        <v>49552</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>72641</v>
+        <v>72217</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5541883359863891</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4483515433729997</v>
+        <v>0.4493235848605243</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6586861791907663</v>
+        <v>0.6548412387074078</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>91</v>
@@ -4591,19 +4591,19 @@
         <v>70656</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>60970</v>
+        <v>60957</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>79102</v>
+        <v>80267</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6055560799059513</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5225382053573483</v>
+        <v>0.5224301171177272</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6779438865719045</v>
+        <v>0.6879271084811319</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>151</v>
@@ -4612,19 +4612,19 @@
         <v>131773</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>116069</v>
+        <v>116259</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>146202</v>
+        <v>145879</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5805962822132427</v>
+        <v>0.5805962822132426</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5114040160361764</v>
+        <v>0.5122406935497672</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6441705611733017</v>
+        <v>0.6427463334303917</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>319164</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>286032</v>
+        <v>286886</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>351720</v>
+        <v>352243</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3571295183405446</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3200565897129153</v>
+        <v>0.3210123236715296</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3935584626104418</v>
+        <v>0.3941434388012078</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>418</v>
@@ -4737,19 +4737,19 @@
         <v>306308</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>280811</v>
+        <v>284399</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>327730</v>
+        <v>328949</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4378607475558143</v>
+        <v>0.4378607475558142</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4014134488732231</v>
+        <v>0.4065427507825815</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4684831384892987</v>
+        <v>0.4702254617634326</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>712</v>
@@ -4758,19 +4758,19 @@
         <v>625472</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>581976</v>
+        <v>582457</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>664157</v>
+        <v>664316</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3925765654675212</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3652762375107524</v>
+        <v>0.3655784898708363</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.416857188654213</v>
+        <v>0.416957179662332</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>574529</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>541973</v>
+        <v>541450</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>607661</v>
+        <v>606807</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6428704816594553</v>
+        <v>0.6428704816594554</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6064415373895581</v>
+        <v>0.6058565611987922</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6799434102870847</v>
+        <v>0.6789876763284702</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>524</v>
@@ -4808,19 +4808,19 @@
         <v>393247</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>371825</v>
+        <v>370606</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>418744</v>
+        <v>415156</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5621392524441856</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5315168615107008</v>
+        <v>0.5297745382365676</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5985865511267765</v>
+        <v>0.5934572492174186</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1036</v>
@@ -4829,19 +4829,19 @@
         <v>967776</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>929091</v>
+        <v>928932</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1011272</v>
+        <v>1010791</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6074234345324789</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5831428113457869</v>
+        <v>0.5830428203376683</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6347237624892476</v>
+        <v>0.6344215101291636</v>
       </c>
     </row>
     <row r="15">
